--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H2">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I2">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J2">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N2">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q2">
-        <v>0.8831722469706667</v>
+        <v>97.53930144234977</v>
       </c>
       <c r="R2">
-        <v>7.948550222736001</v>
+        <v>877.8537129811479</v>
       </c>
       <c r="S2">
-        <v>0.001340956307566462</v>
+        <v>0.1337322219743687</v>
       </c>
       <c r="T2">
-        <v>0.001340956307566462</v>
+        <v>0.1337322219743687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H3">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I3">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J3">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>103.640041</v>
       </c>
       <c r="O3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q3">
-        <v>2.324899461952445</v>
+        <v>261.9714728670252</v>
       </c>
       <c r="R3">
-        <v>20.924095157572</v>
+        <v>2357.743255803227</v>
       </c>
       <c r="S3">
-        <v>0.003529989318229279</v>
+        <v>0.3591785735836138</v>
       </c>
       <c r="T3">
-        <v>0.003529989318229279</v>
+        <v>0.3591785735836139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H4">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I4">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J4">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N4">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q4">
-        <v>1.017579266239556</v>
+        <v>141.4497093382612</v>
       </c>
       <c r="R4">
-        <v>9.158213396156</v>
+        <v>1273.047384044351</v>
       </c>
       <c r="S4">
-        <v>0.001545031946138707</v>
+        <v>0.1939360201243059</v>
       </c>
       <c r="T4">
-        <v>0.001545031946138707</v>
+        <v>0.1939360201243059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H5">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I5">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J5">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N5">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q5">
-        <v>0.4645417373991111</v>
+        <v>57.96009369536911</v>
       </c>
       <c r="R5">
-        <v>4.180875636592001</v>
+        <v>521.640843258322</v>
       </c>
       <c r="S5">
-        <v>0.0007053325951193649</v>
+        <v>0.07946675853840911</v>
       </c>
       <c r="T5">
-        <v>0.0007053325951193651</v>
+        <v>0.07946675853840911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H6">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I6">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J6">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N6">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O6">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P6">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q6">
-        <v>1.088914349843111</v>
+        <v>170.1647616812689</v>
       </c>
       <c r="R6">
-        <v>9.800229148588</v>
+        <v>1531.48285513142</v>
       </c>
       <c r="S6">
-        <v>0.001653342902055946</v>
+        <v>0.233306076062326</v>
       </c>
       <c r="T6">
-        <v>0.001653342902055946</v>
+        <v>0.233306076062326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H7">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I7">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J7">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N7">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O7">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P7">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q7">
-        <v>99.51653313209734</v>
+        <v>0.03711316167822222</v>
       </c>
       <c r="R7">
-        <v>895.6487981888761</v>
+        <v>0.334018455104</v>
       </c>
       <c r="S7">
-        <v>0.1510999958030441</v>
+        <v>5.088436663303502E-05</v>
       </c>
       <c r="T7">
-        <v>0.1510999958030441</v>
+        <v>5.088436663303502E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H8">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I8">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J8">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>103.640041</v>
       </c>
       <c r="O8">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P8">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q8">
-        <v>261.9714728670252</v>
+        <v>0.09967868832177779</v>
       </c>
       <c r="R8">
-        <v>2357.743255803227</v>
+        <v>0.897108194896</v>
       </c>
       <c r="S8">
-        <v>0.3977619316599533</v>
+        <v>0.0001366654494715722</v>
       </c>
       <c r="T8">
-        <v>0.3977619316599533</v>
+        <v>0.0001366654494715722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H9">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I9">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J9">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N9">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O9">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P9">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q9">
-        <v>114.6616202112468</v>
+        <v>0.05382082764977779</v>
       </c>
       <c r="R9">
-        <v>1031.954581901221</v>
+        <v>0.4843874488480001</v>
       </c>
       <c r="S9">
-        <v>0.1740953968894001</v>
+        <v>7.379157697124194E-05</v>
       </c>
       <c r="T9">
-        <v>0.1740953968894001</v>
+        <v>7.379157697124195E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H10">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I10">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J10">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N10">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O10">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P10">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q10">
-        <v>52.34492292946356</v>
+        <v>0.02205349327288889</v>
       </c>
       <c r="R10">
-        <v>471.104306365172</v>
+        <v>0.198481439456</v>
       </c>
       <c r="S10">
-        <v>0.07947742335892923</v>
+        <v>3.023665962405291E-05</v>
       </c>
       <c r="T10">
-        <v>0.07947742335892923</v>
+        <v>3.023665962405292E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H11">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I11">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J11">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N11">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O11">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P11">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q11">
-        <v>122.6997127070925</v>
+        <v>0.06474674535111112</v>
       </c>
       <c r="R11">
-        <v>1104.297414363833</v>
+        <v>0.5827207081600001</v>
       </c>
       <c r="S11">
-        <v>0.186299959329036</v>
+        <v>8.877166427658314E-05</v>
       </c>
       <c r="T11">
-        <v>0.186299959329036</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.019102</v>
-      </c>
-      <c r="H12">
-        <v>0.057306</v>
-      </c>
-      <c r="I12">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J12">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>13.123436</v>
-      </c>
-      <c r="N12">
-        <v>39.370308</v>
-      </c>
-      <c r="O12">
-        <v>0.1528215756229904</v>
-      </c>
-      <c r="P12">
-        <v>0.1528215756229904</v>
-      </c>
-      <c r="Q12">
-        <v>0.250683874472</v>
-      </c>
-      <c r="R12">
-        <v>2.256154870248</v>
-      </c>
-      <c r="S12">
-        <v>0.0003806235123799044</v>
-      </c>
-      <c r="T12">
-        <v>0.0003806235123799044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.019102</v>
-      </c>
-      <c r="H13">
-        <v>0.057306</v>
-      </c>
-      <c r="I13">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J13">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>34.54668033333333</v>
-      </c>
-      <c r="N13">
-        <v>103.640041</v>
-      </c>
-      <c r="O13">
-        <v>0.4022938901888023</v>
-      </c>
-      <c r="P13">
-        <v>0.4022938901888023</v>
-      </c>
-      <c r="Q13">
-        <v>0.6599106877273333</v>
-      </c>
-      <c r="R13">
-        <v>5.939196189545999</v>
-      </c>
-      <c r="S13">
-        <v>0.001001969210619772</v>
-      </c>
-      <c r="T13">
-        <v>0.001001969210619772</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.019102</v>
-      </c>
-      <c r="H14">
-        <v>0.057306</v>
-      </c>
-      <c r="I14">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J14">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>15.12064766666666</v>
-      </c>
-      <c r="N14">
-        <v>45.361943</v>
-      </c>
-      <c r="O14">
-        <v>0.1760789781624335</v>
-      </c>
-      <c r="P14">
-        <v>0.1760789781624335</v>
-      </c>
-      <c r="Q14">
-        <v>0.2888346117286666</v>
-      </c>
-      <c r="R14">
-        <v>2.599511505558</v>
-      </c>
-      <c r="S14">
-        <v>0.0004385493268946998</v>
-      </c>
-      <c r="T14">
-        <v>0.0004385493268946998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.019102</v>
-      </c>
-      <c r="H15">
-        <v>0.057306</v>
-      </c>
-      <c r="I15">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J15">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.902825333333333</v>
-      </c>
-      <c r="N15">
-        <v>20.708476</v>
-      </c>
-      <c r="O15">
-        <v>0.08038296096314212</v>
-      </c>
-      <c r="P15">
-        <v>0.08038296096314212</v>
-      </c>
-      <c r="Q15">
-        <v>0.1318577695173333</v>
-      </c>
-      <c r="R15">
-        <v>1.186719925656</v>
-      </c>
-      <c r="S15">
-        <v>0.0002002050090935269</v>
-      </c>
-      <c r="T15">
-        <v>0.0002002050090935269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.019102</v>
-      </c>
-      <c r="H16">
-        <v>0.057306</v>
-      </c>
-      <c r="I16">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J16">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>16.18064633333333</v>
-      </c>
-      <c r="N16">
-        <v>48.541939</v>
-      </c>
-      <c r="O16">
-        <v>0.1884225950626316</v>
-      </c>
-      <c r="P16">
-        <v>0.1884225950626316</v>
-      </c>
-      <c r="Q16">
-        <v>0.3090827062593333</v>
-      </c>
-      <c r="R16">
-        <v>2.781744356334</v>
-      </c>
-      <c r="S16">
-        <v>0.0004692928315397244</v>
-      </c>
-      <c r="T16">
-        <v>0.0004692928315397244</v>
+        <v>8.877166427658317E-05</v>
       </c>
     </row>
   </sheetData>
